--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV161-001 until DPLKINV161-002 - Investasi - Reksadana - Approve Pembatalan Switching.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV161-001 until DPLKINV161-002 - Investasi - Reksadana - Approve Pembatalan Switching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F36E4-3EE6-4E1E-B0F1-081F3DC1977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61555F6-B3BB-432E-96E2-0B843E8A8FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKINV161-001" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>RUN</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Pembatalan</t>
   </si>
   <si>
-    <t>Hasil Generate</t>
-  </si>
-  <si>
     <t>DPLKINV161-001</t>
   </si>
   <si>
@@ -117,34 +114,40 @@
   </si>
   <si>
     <t xml:space="preserve"> INV.RKS.TRX.004 Pembatalan dikembalikan ke Data Entry</t>
+  </si>
+  <si>
+    <t>SWITCHING_ID</t>
+  </si>
+  <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>SWRKS202200007</t>
+  </si>
+  <si>
+    <t>SWRKS202200008</t>
   </si>
   <si>
     <t>Username : 33372;
 Password : bni1234;
 Role : 18 - Pimpinan Kelompok Investasi;
-Deviden ID : hasil generate;
-Status Verifikasi : 1 : Setuju;
-Keterangan Verifikasi : INV.RKS.TRX.004 PEMBATALAN DISETUJUI</t>
-  </si>
-  <si>
-    <t>SWITCHING_ID</t>
+Switching ID : SWRKS202200007;
+Status Verifikasi : 0 : Kembalikan ke Data Entry;
+Keterangan Verifikasi : INV.RKS.TRX.004 Pembatalan dikembalikan ke Data Entry</t>
   </si>
   <si>
     <t>Username : 33372;
 Password : bni1234;
 Role : 18 - Pimpinan Kelompok Investasi;
-Switching ID : hasil generate;
-Status Verifikasi : 0 : Kembalikan ke Data Entry;
-Keterangan Verifikasi : INV.RKS.TRX.004 Pembatalan dikembalikan ke Data Entry</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Dikembalikan Ke Register</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
+Deviden ID : SWRKS202200008;
+Status Verifikasi : 1 : Setuju;
+Keterangan Verifikasi : INV.RKS.TRX.004 PEMBATALAN DISETUJUI</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -561,7 +564,7 @@
     <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
@@ -611,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>18</v>
@@ -620,27 +623,27 @@
         <v>19</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3">
         <v>33372</v>
@@ -661,19 +664,19 @@
         <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -703,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33B3AAE-605A-4DDB-BFFB-66C1AF414C99}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +725,7 @@
     <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -772,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>18</v>
@@ -781,7 +784,7 @@
         <v>19</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="127.5" x14ac:dyDescent="0.25">
@@ -789,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>33372</v>
@@ -822,17 +825,19 @@
         <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
